--- a/Code/Results/Cases/Case_5_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_165/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48418140164253</v>
+        <v>15.57800190790492</v>
       </c>
       <c r="C2">
-        <v>6.562420854828355</v>
+        <v>8.000055910654073</v>
       </c>
       <c r="D2">
-        <v>5.347606608540755</v>
+        <v>7.940792452306904</v>
       </c>
       <c r="E2">
-        <v>7.849103814455225</v>
+        <v>12.99624494455836</v>
       </c>
       <c r="F2">
-        <v>25.15533989542193</v>
+        <v>38.13641248422841</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.924904950469568</v>
+        <v>10.24051627375574</v>
       </c>
       <c r="K2">
-        <v>10.92435363774971</v>
+        <v>11.68610621854213</v>
       </c>
       <c r="L2">
-        <v>6.654110538779053</v>
+        <v>10.7926058205909</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.73943584853255</v>
+        <v>21.20514023523401</v>
       </c>
       <c r="O2">
-        <v>18.78043649879491</v>
+        <v>29.45693456936716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.65855063553552</v>
+        <v>15.40309458605452</v>
       </c>
       <c r="C3">
-        <v>6.490183944841064</v>
+        <v>7.979124672057908</v>
       </c>
       <c r="D3">
-        <v>5.177230896308951</v>
+        <v>7.925965987496625</v>
       </c>
       <c r="E3">
-        <v>7.799171584678261</v>
+        <v>13.01381980262542</v>
       </c>
       <c r="F3">
-        <v>24.99426624295292</v>
+        <v>38.21399427253787</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.96626548332012</v>
+        <v>10.26006266581307</v>
       </c>
       <c r="K3">
-        <v>10.22695981536108</v>
+        <v>11.55980489088751</v>
       </c>
       <c r="L3">
-        <v>6.530452456220419</v>
+        <v>10.79251960207061</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.94075817385836</v>
+        <v>21.26589487856848</v>
       </c>
       <c r="O3">
-        <v>18.79553347962533</v>
+        <v>29.53561375106056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.13008365114782</v>
+        <v>15.29757681231026</v>
       </c>
       <c r="C4">
-        <v>6.445554288688792</v>
+        <v>7.966175663296172</v>
       </c>
       <c r="D4">
-        <v>5.071613017972332</v>
+        <v>7.917934746494919</v>
       </c>
       <c r="E4">
-        <v>7.771564931970524</v>
+        <v>13.02618630448242</v>
       </c>
       <c r="F4">
-        <v>24.91221772950961</v>
+        <v>38.26871890067844</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.99304977875616</v>
+        <v>10.2728155832853</v>
       </c>
       <c r="K4">
-        <v>9.7741892042697</v>
+        <v>11.48348350119378</v>
       </c>
       <c r="L4">
-        <v>6.455758035332662</v>
+        <v>10.79376169256781</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.0672307325288</v>
+        <v>21.30495113743897</v>
       </c>
       <c r="O4">
-        <v>18.81720060043055</v>
+        <v>29.58887585530327</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.90950936842031</v>
+        <v>15.25509596058923</v>
       </c>
       <c r="C5">
-        <v>6.427304588564156</v>
+        <v>7.960875547451754</v>
       </c>
       <c r="D5">
-        <v>5.028384292752</v>
+        <v>7.914934082723703</v>
       </c>
       <c r="E5">
-        <v>7.761079149453962</v>
+        <v>13.03162245094352</v>
       </c>
       <c r="F5">
-        <v>24.88293138292917</v>
+        <v>38.29280074596404</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.004312739932981</v>
+        <v>10.27820188468306</v>
       </c>
       <c r="K5">
-        <v>9.583496166208921</v>
+        <v>11.45272296537458</v>
       </c>
       <c r="L5">
-        <v>6.425661491343624</v>
+        <v>10.79459463752374</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.11950888260476</v>
+        <v>21.32130888670471</v>
       </c>
       <c r="O5">
-        <v>18.82904733435014</v>
+        <v>29.61182520156541</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87257441151971</v>
+        <v>15.24807471192447</v>
       </c>
       <c r="C6">
-        <v>6.424270646729576</v>
+        <v>7.959994093636411</v>
       </c>
       <c r="D6">
-        <v>5.021196777575121</v>
+        <v>7.914452330602836</v>
       </c>
       <c r="E6">
-        <v>7.759384028147433</v>
+        <v>13.03254909328347</v>
       </c>
       <c r="F6">
-        <v>24.87831627610163</v>
+        <v>38.29690704390661</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.006203944544771</v>
+        <v>10.27910772751406</v>
       </c>
       <c r="K6">
-        <v>9.551458065694659</v>
+        <v>11.44763673052567</v>
       </c>
       <c r="L6">
-        <v>6.420685578108258</v>
+        <v>10.79475271581459</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.12823487854714</v>
+        <v>21.32405181245001</v>
       </c>
       <c r="O6">
-        <v>18.83119377801937</v>
+        <v>29.61571106933761</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12712975696023</v>
+        <v>15.297001740215</v>
       </c>
       <c r="C7">
-        <v>6.445308412053179</v>
+        <v>7.966104276882775</v>
       </c>
       <c r="D7">
-        <v>5.071030695319015</v>
+        <v>7.917893173458233</v>
       </c>
       <c r="E7">
-        <v>7.771420428166512</v>
+        <v>13.02625801136184</v>
       </c>
       <c r="F7">
-        <v>24.9118060861683</v>
+        <v>38.26903646738656</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.993200266665844</v>
+        <v>10.27288745742092</v>
       </c>
       <c r="K7">
-        <v>9.771642500725742</v>
+        <v>11.48306723081731</v>
       </c>
       <c r="L7">
-        <v>6.455350715504944</v>
+        <v>10.79377160138138</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.06793275307371</v>
+        <v>21.30516995239516</v>
       </c>
       <c r="O7">
-        <v>18.81734828543011</v>
+        <v>29.58918031997271</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.20407498798071</v>
+        <v>15.51733279963883</v>
       </c>
       <c r="C8">
-        <v>6.537574731556858</v>
+        <v>7.992859664414732</v>
       </c>
       <c r="D8">
-        <v>5.289107251033022</v>
+        <v>7.935459288182171</v>
       </c>
       <c r="E8">
-        <v>7.831252103197444</v>
+        <v>13.0019780964357</v>
       </c>
       <c r="F8">
-        <v>25.09625335038113</v>
+        <v>38.16169052082238</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.938877137419079</v>
+        <v>10.24710019703286</v>
       </c>
       <c r="K8">
-        <v>10.68898476523531</v>
+        <v>11.6423221195092</v>
       </c>
       <c r="L8">
-        <v>6.611236844072462</v>
+        <v>10.79230801517827</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.80827081396156</v>
+        <v>21.22572544864287</v>
       </c>
       <c r="O8">
-        <v>18.78300852594619</v>
+        <v>29.48303473815577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.13864340057238</v>
+        <v>15.96219757783857</v>
       </c>
       <c r="C9">
-        <v>6.716045878746215</v>
+        <v>8.044507118706996</v>
       </c>
       <c r="D9">
-        <v>5.706177297999881</v>
+        <v>7.978297886676544</v>
       </c>
       <c r="E9">
-        <v>7.972897975427238</v>
+        <v>12.96684177193302</v>
       </c>
       <c r="F9">
-        <v>25.59523874857825</v>
+        <v>38.00749257953472</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.843423726006455</v>
+        <v>10.20247279943884</v>
       </c>
       <c r="K9">
-        <v>12.29362282538849</v>
+        <v>11.9629270720053</v>
       </c>
       <c r="L9">
-        <v>6.925299578577309</v>
+        <v>10.79966095780772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.32079038966805</v>
+        <v>21.08378191923783</v>
       </c>
       <c r="O9">
-        <v>18.81851607468599</v>
+        <v>29.31421605821458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.44545641081283</v>
+        <v>16.29401551694192</v>
       </c>
       <c r="C10">
-        <v>6.845331887920623</v>
+        <v>8.081888523913674</v>
       </c>
       <c r="D10">
-        <v>6.003045108579565</v>
+        <v>8.014721554801083</v>
       </c>
       <c r="E10">
-        <v>8.091869209477581</v>
+        <v>12.94859958686888</v>
       </c>
       <c r="F10">
-        <v>26.04990937222998</v>
+        <v>37.92859643713337</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.780132449189616</v>
+        <v>10.17327893401039</v>
       </c>
       <c r="K10">
-        <v>13.35542146866907</v>
+        <v>12.20159610485682</v>
       </c>
       <c r="L10">
-        <v>7.159310504528575</v>
+        <v>10.81122133576632</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.97443862249533</v>
+        <v>20.98785243877131</v>
       </c>
       <c r="O10">
-        <v>18.91340691079546</v>
+        <v>29.21420772065408</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.01427681248653</v>
+        <v>16.44544881833577</v>
       </c>
       <c r="C11">
-        <v>6.903686406461378</v>
+        <v>8.098758029753647</v>
       </c>
       <c r="D11">
-        <v>6.135472932634718</v>
+        <v>8.032327841286602</v>
       </c>
       <c r="E11">
-        <v>8.149228553826751</v>
+        <v>12.94193712707576</v>
       </c>
       <c r="F11">
-        <v>26.27665960822028</v>
+        <v>37.90018083472031</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.752847955374581</v>
+        <v>10.16077232783957</v>
       </c>
       <c r="K11">
-        <v>13.81339046032949</v>
+        <v>12.31043777752725</v>
       </c>
       <c r="L11">
-        <v>7.266111864206125</v>
+        <v>10.81780003650485</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.81909993523144</v>
+        <v>20.94600800697858</v>
       </c>
       <c r="O11">
-        <v>18.9728089781433</v>
+        <v>29.17393582521685</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22594373721516</v>
+        <v>16.50281321677934</v>
       </c>
       <c r="C12">
-        <v>6.925713136652649</v>
+        <v>8.105125354075273</v>
       </c>
       <c r="D12">
-        <v>6.185204420273847</v>
+        <v>8.039140452357763</v>
       </c>
       <c r="E12">
-        <v>8.171413438305713</v>
+        <v>12.9396487363682</v>
       </c>
       <c r="F12">
-        <v>26.36544235004703</v>
+        <v>37.89049548342529</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.742735128771687</v>
+        <v>10.15614722683079</v>
       </c>
       <c r="K12">
-        <v>13.98324247141321</v>
+        <v>12.35165793605704</v>
       </c>
       <c r="L12">
-        <v>7.306576374361066</v>
+        <v>10.82047933528648</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.76056704101444</v>
+        <v>20.93041929946628</v>
       </c>
       <c r="O12">
-        <v>18.99774219945172</v>
+        <v>29.15943743722778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.18052401928893</v>
+        <v>16.49045867286308</v>
       </c>
       <c r="C13">
-        <v>6.92097250996449</v>
+        <v>8.103754982502748</v>
       </c>
       <c r="D13">
-        <v>6.174512933110915</v>
+        <v>8.037666823172019</v>
       </c>
       <c r="E13">
-        <v>8.166614913746342</v>
+        <v>12.94013116301619</v>
       </c>
       <c r="F13">
-        <v>26.34619086147756</v>
+        <v>37.89253358631593</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.744903313846424</v>
+        <v>10.15713839996863</v>
       </c>
       <c r="K13">
-        <v>13.9468200933796</v>
+        <v>12.34278079694457</v>
       </c>
       <c r="L13">
-        <v>7.297861117228958</v>
+        <v>10.81989396323693</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.77316069979252</v>
+        <v>20.93376520047165</v>
       </c>
       <c r="O13">
-        <v>18.99226226422367</v>
+        <v>29.16252648160055</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03176578247963</v>
+        <v>16.45016810784024</v>
       </c>
       <c r="C14">
-        <v>6.905500005120802</v>
+        <v>8.099282297580134</v>
       </c>
       <c r="D14">
-        <v>6.139572918389637</v>
+        <v>8.032885424310097</v>
       </c>
       <c r="E14">
-        <v>8.15104442623011</v>
+        <v>12.94174416357159</v>
       </c>
       <c r="F14">
-        <v>26.28390506542262</v>
+        <v>37.89936247029594</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.752011558096137</v>
+        <v>10.16038959806542</v>
       </c>
       <c r="K14">
-        <v>13.82743566559722</v>
+        <v>12.31382909740166</v>
       </c>
       <c r="L14">
-        <v>7.26944063870851</v>
+        <v>10.8180167045638</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.81427874632303</v>
+        <v>20.94472037315132</v>
       </c>
       <c r="O14">
-        <v>18.97481077627343</v>
+        <v>29.17272796498247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94015991470788</v>
+        <v>16.42549008805228</v>
       </c>
       <c r="C15">
-        <v>6.896013284588774</v>
+        <v>8.096539902252434</v>
       </c>
       <c r="D15">
-        <v>6.118115883468088</v>
+        <v>8.029975516712755</v>
       </c>
       <c r="E15">
-        <v>8.141567443192738</v>
+        <v>12.94276269471396</v>
       </c>
       <c r="F15">
-        <v>26.24613462223059</v>
+        <v>37.90368535742245</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.756394191470608</v>
+        <v>10.16239547884158</v>
       </c>
       <c r="K15">
-        <v>13.75384519024601</v>
+        <v>12.29609487130363</v>
       </c>
       <c r="L15">
-        <v>7.252034203830648</v>
+        <v>10.81689127181918</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.83950169251128</v>
+        <v>20.95146415071351</v>
       </c>
       <c r="O15">
-        <v>18.96444193260414</v>
+        <v>29.17907458232469</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.40776225935709</v>
+        <v>16.28412449476253</v>
       </c>
       <c r="C16">
-        <v>6.841508623063393</v>
+        <v>8.080783224074796</v>
       </c>
       <c r="D16">
-        <v>5.99433445025088</v>
+        <v>8.013591502973135</v>
       </c>
       <c r="E16">
-        <v>8.088185689708279</v>
+        <v>12.94906785461167</v>
       </c>
       <c r="F16">
-        <v>26.03549619066201</v>
+        <v>37.93060389575069</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.781946087985634</v>
+        <v>10.17411180758327</v>
       </c>
       <c r="K16">
-        <v>13.32499066340448</v>
+        <v>12.19448550423438</v>
       </c>
       <c r="L16">
-        <v>7.152335277712031</v>
+        <v>10.81081781721935</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.98463261318649</v>
+        <v>20.99062307891049</v>
       </c>
       <c r="O16">
-        <v>18.90986049139801</v>
+        <v>29.21694473631464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07454570794547</v>
+        <v>16.19749019103555</v>
       </c>
       <c r="C17">
-        <v>6.807950677544426</v>
+        <v>8.071081383499742</v>
       </c>
       <c r="D17">
-        <v>5.91769809013964</v>
+        <v>8.003803507023239</v>
       </c>
       <c r="E17">
-        <v>8.056266275631621</v>
+        <v>12.95335439002656</v>
       </c>
       <c r="F17">
-        <v>25.91141754705515</v>
+        <v>37.94903222165523</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.798009026361348</v>
+        <v>10.18149730871435</v>
       </c>
       <c r="K17">
-        <v>13.05550791080698</v>
+        <v>12.13219577694974</v>
       </c>
       <c r="L17">
-        <v>7.091241274941676</v>
+        <v>10.80742880871954</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.07421417533053</v>
+        <v>21.01510456715532</v>
       </c>
       <c r="O17">
-        <v>18.88060947500966</v>
+        <v>29.24151498007436</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.88047494606392</v>
+        <v>16.14770929310239</v>
       </c>
       <c r="C18">
-        <v>6.788606155250807</v>
+        <v>8.065488468057309</v>
       </c>
       <c r="D18">
-        <v>5.87337441488433</v>
+        <v>7.998271542692235</v>
       </c>
       <c r="E18">
-        <v>8.038212051725905</v>
+        <v>12.95597392587005</v>
       </c>
       <c r="F18">
-        <v>25.84192282205817</v>
+        <v>37.96033526843879</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.807389684149766</v>
+        <v>10.18581811357356</v>
       </c>
       <c r="K18">
-        <v>12.89814881871014</v>
+        <v>12.09639582462695</v>
       </c>
       <c r="L18">
-        <v>7.056136053100166</v>
+        <v>10.80560387699655</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.12594973879382</v>
+        <v>21.02935463477063</v>
       </c>
       <c r="O18">
-        <v>18.86530708638682</v>
+        <v>29.25613865344921</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.81435304104165</v>
+        <v>16.13086427232801</v>
       </c>
       <c r="C19">
-        <v>6.782049228371879</v>
+        <v>8.063592666060229</v>
       </c>
       <c r="D19">
-        <v>5.858326479153861</v>
+        <v>7.996415425240352</v>
       </c>
       <c r="E19">
-        <v>8.032151621639033</v>
+        <v>12.95688733226641</v>
       </c>
       <c r="F19">
-        <v>25.81871291083239</v>
+        <v>37.96428311201259</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.810590075834344</v>
+        <v>10.18729358977139</v>
       </c>
       <c r="K19">
-        <v>12.84446354912653</v>
+        <v>12.08428035467549</v>
       </c>
       <c r="L19">
-        <v>7.044256856795547</v>
+        <v>10.80500739162362</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.143503526943</v>
+        <v>21.03420851784804</v>
       </c>
       <c r="O19">
-        <v>18.86038417260275</v>
+        <v>29.2611743730867</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11026733090458</v>
+        <v>16.20670787001576</v>
       </c>
       <c r="C20">
-        <v>6.811527453789204</v>
+        <v>8.072115482091727</v>
       </c>
       <c r="D20">
-        <v>5.925881765161051</v>
+        <v>8.004835356417219</v>
       </c>
       <c r="E20">
-        <v>8.059632597435968</v>
+        <v>12.95288214411731</v>
       </c>
       <c r="F20">
-        <v>25.92443177959828</v>
+        <v>37.94699767655111</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.796284418534021</v>
+        <v>10.18070357166488</v>
       </c>
       <c r="K20">
-        <v>13.08443881845342</v>
+        <v>12.13882403626492</v>
       </c>
       <c r="L20">
-        <v>7.097741488358873</v>
+        <v>10.80777671814026</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.06465646810142</v>
+        <v>21.01248099230399</v>
       </c>
       <c r="O20">
-        <v>18.88356501299341</v>
+        <v>29.23884855970674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.07556125900152</v>
+        <v>16.46200227953015</v>
       </c>
       <c r="C21">
-        <v>6.910046614376893</v>
+        <v>8.100596608312708</v>
       </c>
       <c r="D21">
-        <v>6.149847228588516</v>
+        <v>8.034285918068758</v>
       </c>
       <c r="E21">
-        <v>8.155605274069613</v>
+        <v>12.94126402685412</v>
       </c>
       <c r="F21">
-        <v>26.30212034194723</v>
+        <v>37.89732748616566</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.749917723383667</v>
+        <v>10.15943163628035</v>
       </c>
       <c r="K21">
-        <v>13.86259841742527</v>
+        <v>12.32233307316294</v>
       </c>
       <c r="L21">
-        <v>7.27778806906049</v>
+        <v>10.81856301034089</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.80219373121847</v>
+        <v>20.94149561115323</v>
       </c>
       <c r="O21">
-        <v>18.97986968414127</v>
+        <v>29.16971113562371</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68466914350962</v>
+        <v>16.62894525478698</v>
       </c>
       <c r="C22">
-        <v>6.974019711516652</v>
+        <v>8.119088868944207</v>
       </c>
       <c r="D22">
-        <v>6.293781768213896</v>
+        <v>8.054379817317361</v>
       </c>
       <c r="E22">
-        <v>8.221033324521843</v>
+        <v>12.93503761807566</v>
       </c>
       <c r="F22">
-        <v>26.56598710183647</v>
+        <v>37.87113101478872</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.720893573148218</v>
+        <v>10.14617530531541</v>
       </c>
       <c r="K22">
-        <v>14.35037315597211</v>
+        <v>12.44227556295368</v>
       </c>
       <c r="L22">
-        <v>7.39557024559397</v>
+        <v>10.82670793672505</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.63233789436845</v>
+        <v>20.89659927037045</v>
       </c>
       <c r="O22">
-        <v>19.05707388896943</v>
+        <v>29.12890761412937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36157864265714</v>
+        <v>16.53985246662524</v>
       </c>
       <c r="C23">
-        <v>6.939915499451605</v>
+        <v>8.109230781076548</v>
       </c>
       <c r="D23">
-        <v>6.217196172003149</v>
+        <v>8.043579128869697</v>
       </c>
       <c r="E23">
-        <v>8.18586633267336</v>
+        <v>12.93823596520036</v>
       </c>
       <c r="F23">
-        <v>26.42358246303845</v>
+        <v>37.88453927226544</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.736266354193535</v>
+        <v>10.15319146957421</v>
       </c>
       <c r="K23">
-        <v>14.0919305695309</v>
+        <v>12.37827048962743</v>
       </c>
       <c r="L23">
-        <v>7.332706536936757</v>
+        <v>10.82226118864851</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.72284942503576</v>
+        <v>20.92042472306072</v>
       </c>
       <c r="O23">
-        <v>19.01452931258434</v>
+        <v>29.15028407159727</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09412536899726</v>
+        <v>16.20254047152743</v>
       </c>
       <c r="C24">
-        <v>6.80991055362631</v>
+        <v>8.071648013365932</v>
       </c>
       <c r="D24">
-        <v>5.92218274621344</v>
+        <v>8.004368560242856</v>
       </c>
       <c r="E24">
-        <v>8.058109759163907</v>
+        <v>12.9530951631726</v>
       </c>
       <c r="F24">
-        <v>25.91854231876775</v>
+        <v>37.94791528792364</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.797063659595861</v>
+        <v>10.18106218721662</v>
       </c>
       <c r="K24">
-        <v>13.07136672591916</v>
+        <v>12.13582736255845</v>
       </c>
       <c r="L24">
-        <v>7.094802681920324</v>
+        <v>10.80761904362062</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.06897677676342</v>
+        <v>21.01366656424021</v>
       </c>
       <c r="O24">
-        <v>18.88222410513307</v>
+        <v>29.24005249743362</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.63504709937774</v>
+        <v>15.84077124276541</v>
       </c>
       <c r="C25">
-        <v>6.668064389981473</v>
+        <v>8.030629455865929</v>
       </c>
       <c r="D25">
-        <v>5.594821974794044</v>
+        <v>7.965826951853071</v>
       </c>
       <c r="E25">
-        <v>7.931963852872332</v>
+        <v>12.97501467847139</v>
       </c>
       <c r="F25">
-        <v>25.44507193884782</v>
+        <v>38.04317100009714</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.868052649300922</v>
+        <v>10.21391255347445</v>
       </c>
       <c r="K25">
-        <v>11.88020529234495</v>
+        <v>11.87550603525665</v>
       </c>
       <c r="L25">
-        <v>6.839633987375417</v>
+        <v>10.79658461531679</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.45048591526505</v>
+        <v>21.12070782624115</v>
       </c>
       <c r="O25">
-        <v>18.79726729618864</v>
+        <v>29.35567025687637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_165/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.57800190790492</v>
+        <v>14.48418140164257</v>
       </c>
       <c r="C2">
-        <v>8.000055910654073</v>
+        <v>6.562420854828588</v>
       </c>
       <c r="D2">
-        <v>7.940792452306904</v>
+        <v>5.347606608540827</v>
       </c>
       <c r="E2">
-        <v>12.99624494455836</v>
+        <v>7.849103814455336</v>
       </c>
       <c r="F2">
-        <v>38.13641248422841</v>
+        <v>25.15533989542189</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.24051627375574</v>
+        <v>5.924904950469569</v>
       </c>
       <c r="K2">
-        <v>11.68610621854213</v>
+        <v>10.92435363774973</v>
       </c>
       <c r="L2">
-        <v>10.7926058205909</v>
+        <v>6.654110538779044</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.20514023523401</v>
+        <v>13.73943584853252</v>
       </c>
       <c r="O2">
-        <v>29.45693456936716</v>
+        <v>18.78043649879484</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.40309458605452</v>
+        <v>13.65855063553551</v>
       </c>
       <c r="C3">
-        <v>7.979124672057908</v>
+        <v>6.490183944840928</v>
       </c>
       <c r="D3">
-        <v>7.925965987496625</v>
+        <v>5.177230896308854</v>
       </c>
       <c r="E3">
-        <v>13.01381980262542</v>
+        <v>7.799171584678374</v>
       </c>
       <c r="F3">
-        <v>38.21399427253787</v>
+        <v>24.99426624295267</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.26006266581307</v>
+        <v>5.966265483320248</v>
       </c>
       <c r="K3">
-        <v>11.55980489088751</v>
+        <v>10.22695981536108</v>
       </c>
       <c r="L3">
-        <v>10.79251960207061</v>
+        <v>6.530452456220508</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.26589487856848</v>
+        <v>13.9407581738583</v>
       </c>
       <c r="O3">
-        <v>29.53561375106056</v>
+        <v>18.7955334796252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.29757681231026</v>
+        <v>13.13008365114773</v>
       </c>
       <c r="C4">
-        <v>7.966175663296172</v>
+        <v>6.445554288688656</v>
       </c>
       <c r="D4">
-        <v>7.917934746494919</v>
+        <v>5.071613017972356</v>
       </c>
       <c r="E4">
-        <v>13.02618630448242</v>
+        <v>7.771564931970416</v>
       </c>
       <c r="F4">
-        <v>38.26871890067844</v>
+        <v>24.91221772950925</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.2728155832853</v>
+        <v>5.993049778756031</v>
       </c>
       <c r="K4">
-        <v>11.48348350119378</v>
+        <v>9.774189204269785</v>
       </c>
       <c r="L4">
-        <v>10.79376169256781</v>
+        <v>6.455758035332583</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.30495113743897</v>
+        <v>14.06723073252863</v>
       </c>
       <c r="O4">
-        <v>29.58887585530327</v>
+        <v>18.81720060043022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.25509596058923</v>
+        <v>12.90950936842032</v>
       </c>
       <c r="C5">
-        <v>7.960875547451754</v>
+        <v>6.427304588564158</v>
       </c>
       <c r="D5">
-        <v>7.914934082723703</v>
+        <v>5.028384292752007</v>
       </c>
       <c r="E5">
-        <v>13.03162245094352</v>
+        <v>7.761079149454026</v>
       </c>
       <c r="F5">
-        <v>38.29280074596404</v>
+        <v>24.8829313829291</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.27820188468306</v>
+        <v>6.004312739932987</v>
       </c>
       <c r="K5">
-        <v>11.45272296537458</v>
+        <v>9.583496166208956</v>
       </c>
       <c r="L5">
-        <v>10.79459463752374</v>
+        <v>6.42566149134364</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.32130888670471</v>
+        <v>14.11950888260469</v>
       </c>
       <c r="O5">
-        <v>29.61182520156541</v>
+        <v>18.82904733435008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.24807471192447</v>
+        <v>12.87257441151968</v>
       </c>
       <c r="C6">
-        <v>7.959994093636411</v>
+        <v>6.42427064672982</v>
       </c>
       <c r="D6">
-        <v>7.914452330602836</v>
+        <v>5.021196777575114</v>
       </c>
       <c r="E6">
-        <v>13.03254909328347</v>
+        <v>7.759384028147432</v>
       </c>
       <c r="F6">
-        <v>38.29690704390661</v>
+        <v>24.87831627610148</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.27910772751406</v>
+        <v>6.006203944544771</v>
       </c>
       <c r="K6">
-        <v>11.44763673052567</v>
+        <v>9.551458065694691</v>
       </c>
       <c r="L6">
-        <v>10.79475271581459</v>
+        <v>6.420685578108228</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.32405181245001</v>
+        <v>14.12823487854711</v>
       </c>
       <c r="O6">
-        <v>29.61571106933761</v>
+        <v>18.83119377801927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.297001740215</v>
+        <v>13.12712975696023</v>
       </c>
       <c r="C7">
-        <v>7.966104276882775</v>
+        <v>6.44530841205358</v>
       </c>
       <c r="D7">
-        <v>7.917893173458233</v>
+        <v>5.07103069531914</v>
       </c>
       <c r="E7">
-        <v>13.02625801136184</v>
+        <v>7.771420428166495</v>
       </c>
       <c r="F7">
-        <v>38.26903646738656</v>
+        <v>24.91180608616814</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.27288745742092</v>
+        <v>5.993200266665812</v>
       </c>
       <c r="K7">
-        <v>11.48306723081731</v>
+        <v>9.771642500725793</v>
       </c>
       <c r="L7">
-        <v>10.79377160138138</v>
+        <v>6.455350715504891</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.30516995239516</v>
+        <v>14.06793275307361</v>
       </c>
       <c r="O7">
-        <v>29.58918031997271</v>
+        <v>18.81734828542989</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.51733279963883</v>
+        <v>14.20407498798066</v>
       </c>
       <c r="C8">
-        <v>7.992859664414732</v>
+        <v>6.537574731556735</v>
       </c>
       <c r="D8">
-        <v>7.935459288182171</v>
+        <v>5.289107251033051</v>
       </c>
       <c r="E8">
-        <v>13.0019780964357</v>
+        <v>7.831252103197494</v>
       </c>
       <c r="F8">
-        <v>38.16169052082238</v>
+        <v>25.09625335038102</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.24710019703286</v>
+        <v>5.938877137419044</v>
       </c>
       <c r="K8">
-        <v>11.6423221195092</v>
+        <v>10.68898476523535</v>
       </c>
       <c r="L8">
-        <v>10.79230801517827</v>
+        <v>6.611236844072516</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.22572544864287</v>
+        <v>13.80827081396152</v>
       </c>
       <c r="O8">
-        <v>29.48303473815577</v>
+        <v>18.78300852594611</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.96219757783857</v>
+        <v>16.13864340057237</v>
       </c>
       <c r="C9">
-        <v>8.044507118706996</v>
+        <v>6.716045878746092</v>
       </c>
       <c r="D9">
-        <v>7.978297886676544</v>
+        <v>5.706177297999923</v>
       </c>
       <c r="E9">
-        <v>12.96684177193302</v>
+        <v>7.972897975427183</v>
       </c>
       <c r="F9">
-        <v>38.00749257953472</v>
+        <v>25.59523874857802</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.20247279943884</v>
+        <v>5.843423726006388</v>
       </c>
       <c r="K9">
-        <v>11.9629270720053</v>
+        <v>12.29362282538849</v>
       </c>
       <c r="L9">
-        <v>10.79966095780772</v>
+        <v>6.925299578577363</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.08378191923783</v>
+        <v>13.32079038966792</v>
       </c>
       <c r="O9">
-        <v>29.31421605821458</v>
+        <v>18.8185160746858</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.29401551694192</v>
+        <v>17.44545641081283</v>
       </c>
       <c r="C10">
-        <v>8.081888523913674</v>
+        <v>6.845331887920758</v>
       </c>
       <c r="D10">
-        <v>8.014721554801083</v>
+        <v>6.003045108579555</v>
       </c>
       <c r="E10">
-        <v>12.94859958686888</v>
+        <v>8.091869209477615</v>
       </c>
       <c r="F10">
-        <v>37.92859643713337</v>
+        <v>26.04990937222984</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.17327893401039</v>
+        <v>5.780132449189614</v>
       </c>
       <c r="K10">
-        <v>12.20159610485682</v>
+        <v>13.35542146866908</v>
       </c>
       <c r="L10">
-        <v>10.81122133576632</v>
+        <v>7.159310504528578</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.98785243877131</v>
+        <v>12.97443862249523</v>
       </c>
       <c r="O10">
-        <v>29.21420772065408</v>
+        <v>18.91340691079534</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.44544881833577</v>
+        <v>18.01427681248655</v>
       </c>
       <c r="C11">
-        <v>8.098758029753647</v>
+        <v>6.903686406461497</v>
       </c>
       <c r="D11">
-        <v>8.032327841286602</v>
+        <v>6.135472932634764</v>
       </c>
       <c r="E11">
-        <v>12.94193712707576</v>
+        <v>8.1492285538268</v>
       </c>
       <c r="F11">
-        <v>37.90018083472031</v>
+        <v>26.27665960822031</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.16077232783957</v>
+        <v>5.752847955374583</v>
       </c>
       <c r="K11">
-        <v>12.31043777752725</v>
+        <v>13.81339046032952</v>
       </c>
       <c r="L11">
-        <v>10.81780003650485</v>
+        <v>7.266111864206125</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.94600800697858</v>
+        <v>12.81909993523147</v>
       </c>
       <c r="O11">
-        <v>29.17393582521685</v>
+        <v>18.97280897814329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.50281321677934</v>
+        <v>18.22594373721517</v>
       </c>
       <c r="C12">
-        <v>8.105125354075273</v>
+        <v>6.92571313665228</v>
       </c>
       <c r="D12">
-        <v>8.039140452357763</v>
+        <v>6.185204420273727</v>
       </c>
       <c r="E12">
-        <v>12.9396487363682</v>
+        <v>8.171413438305619</v>
       </c>
       <c r="F12">
-        <v>37.89049548342529</v>
+        <v>26.36544235004686</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.15614722683079</v>
+        <v>5.742735128771747</v>
       </c>
       <c r="K12">
-        <v>12.35165793605704</v>
+        <v>13.9832424714132</v>
       </c>
       <c r="L12">
-        <v>10.82047933528648</v>
+        <v>7.306576374361064</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.93041929946628</v>
+        <v>12.76056704101437</v>
       </c>
       <c r="O12">
-        <v>29.15943743722778</v>
+        <v>18.99774219945167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49045867286308</v>
+        <v>18.18052401928895</v>
       </c>
       <c r="C13">
-        <v>8.103754982502748</v>
+        <v>6.920972509964729</v>
       </c>
       <c r="D13">
-        <v>8.037666823172019</v>
+        <v>6.174512933110974</v>
       </c>
       <c r="E13">
-        <v>12.94013116301619</v>
+        <v>8.166614913746304</v>
       </c>
       <c r="F13">
-        <v>37.89253358631593</v>
+        <v>26.34619086147758</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.15713839996863</v>
+        <v>5.744903313846337</v>
       </c>
       <c r="K13">
-        <v>12.34278079694457</v>
+        <v>13.94682009337964</v>
       </c>
       <c r="L13">
-        <v>10.81989396323693</v>
+        <v>7.297861117228901</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.93376520047165</v>
+        <v>12.77316069979252</v>
       </c>
       <c r="O13">
-        <v>29.16252648160055</v>
+        <v>18.99226226422364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.45016810784024</v>
+        <v>18.03176578247964</v>
       </c>
       <c r="C14">
-        <v>8.099282297580134</v>
+        <v>6.905500005120794</v>
       </c>
       <c r="D14">
-        <v>8.032885424310097</v>
+        <v>6.139572918389591</v>
       </c>
       <c r="E14">
-        <v>12.94174416357159</v>
+        <v>8.15104442623011</v>
       </c>
       <c r="F14">
-        <v>37.89936247029594</v>
+        <v>26.28390506542244</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.16038959806542</v>
+        <v>5.752011558096139</v>
       </c>
       <c r="K14">
-        <v>12.31382909740166</v>
+        <v>13.82743566559725</v>
       </c>
       <c r="L14">
-        <v>10.8180167045638</v>
+        <v>7.269440638708516</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.94472037315132</v>
+        <v>12.8142787463229</v>
       </c>
       <c r="O14">
-        <v>29.17272796498247</v>
+        <v>18.97481077627324</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42549008805228</v>
+        <v>17.9401599147079</v>
       </c>
       <c r="C15">
-        <v>8.096539902252434</v>
+        <v>6.896013284589022</v>
       </c>
       <c r="D15">
-        <v>8.029975516712755</v>
+        <v>6.118115883468112</v>
       </c>
       <c r="E15">
-        <v>12.94276269471396</v>
+        <v>8.141567443192795</v>
       </c>
       <c r="F15">
-        <v>37.90368535742245</v>
+        <v>26.24613462223062</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.16239547884158</v>
+        <v>5.756394191470609</v>
       </c>
       <c r="K15">
-        <v>12.29609487130363</v>
+        <v>13.75384519024603</v>
       </c>
       <c r="L15">
-        <v>10.81689127181918</v>
+        <v>7.252034203830638</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.95146415071351</v>
+        <v>12.83950169251128</v>
       </c>
       <c r="O15">
-        <v>29.17907458232469</v>
+        <v>18.96444193260411</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.28412449476253</v>
+        <v>17.4077622593571</v>
       </c>
       <c r="C16">
-        <v>8.080783224074796</v>
+        <v>6.841508623063647</v>
       </c>
       <c r="D16">
-        <v>8.013591502973135</v>
+        <v>5.994334450250909</v>
       </c>
       <c r="E16">
-        <v>12.94906785461167</v>
+        <v>8.088185689708334</v>
       </c>
       <c r="F16">
-        <v>37.93060389575069</v>
+        <v>26.03549619066205</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.17411180758327</v>
+        <v>5.781946087985703</v>
       </c>
       <c r="K16">
-        <v>12.19448550423438</v>
+        <v>13.32499066340444</v>
       </c>
       <c r="L16">
-        <v>10.81081781721935</v>
+        <v>7.152335277712033</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.99062307891049</v>
+        <v>12.98463261318649</v>
       </c>
       <c r="O16">
-        <v>29.21694473631464</v>
+        <v>18.90986049139809</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.19749019103555</v>
+        <v>17.07454570794546</v>
       </c>
       <c r="C17">
-        <v>8.071081383499742</v>
+        <v>6.8079506775443</v>
       </c>
       <c r="D17">
-        <v>8.003803507023239</v>
+        <v>5.917698090139693</v>
       </c>
       <c r="E17">
-        <v>12.95335439002656</v>
+        <v>8.056266275631664</v>
       </c>
       <c r="F17">
-        <v>37.94903222165523</v>
+        <v>25.91141754705514</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.18149730871435</v>
+        <v>5.798009026361319</v>
       </c>
       <c r="K17">
-        <v>12.13219577694974</v>
+        <v>13.05550791080694</v>
       </c>
       <c r="L17">
-        <v>10.80742880871954</v>
+        <v>7.091241274941686</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.01510456715532</v>
+        <v>13.0742141753305</v>
       </c>
       <c r="O17">
-        <v>29.24151498007436</v>
+        <v>18.88060947500963</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14770929310239</v>
+        <v>16.8804749460639</v>
       </c>
       <c r="C18">
-        <v>8.065488468057309</v>
+        <v>6.788606155250799</v>
       </c>
       <c r="D18">
-        <v>7.998271542692235</v>
+        <v>5.873374414884394</v>
       </c>
       <c r="E18">
-        <v>12.95597392587005</v>
+        <v>8.038212051725866</v>
       </c>
       <c r="F18">
-        <v>37.96033526843879</v>
+        <v>25.84192282205803</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.18581811357356</v>
+        <v>5.807389684149674</v>
       </c>
       <c r="K18">
-        <v>12.09639582462695</v>
+        <v>12.89814881871018</v>
       </c>
       <c r="L18">
-        <v>10.80560387699655</v>
+        <v>7.056136053100167</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.02935463477063</v>
+        <v>13.12594973879372</v>
       </c>
       <c r="O18">
-        <v>29.25613865344921</v>
+        <v>18.86530708638663</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.13086427232801</v>
+        <v>16.81435304104163</v>
       </c>
       <c r="C19">
-        <v>8.063592666060229</v>
+        <v>6.782049228372254</v>
       </c>
       <c r="D19">
-        <v>7.996415425240352</v>
+        <v>5.858326479153879</v>
       </c>
       <c r="E19">
-        <v>12.95688733226641</v>
+        <v>8.032151621639166</v>
       </c>
       <c r="F19">
-        <v>37.96428311201259</v>
+        <v>25.8187129108324</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.18729358977139</v>
+        <v>5.81059007583441</v>
       </c>
       <c r="K19">
-        <v>12.08428035467549</v>
+        <v>12.84446354912654</v>
       </c>
       <c r="L19">
-        <v>10.80500739162362</v>
+        <v>7.044256856795537</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.03420851784804</v>
+        <v>13.14350352694307</v>
       </c>
       <c r="O19">
-        <v>29.2611743730867</v>
+        <v>18.86038417260277</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.20670787001576</v>
+        <v>17.11026733090459</v>
       </c>
       <c r="C20">
-        <v>8.072115482091727</v>
+        <v>6.811527453789211</v>
       </c>
       <c r="D20">
-        <v>8.004835356417219</v>
+        <v>5.925881765161024</v>
       </c>
       <c r="E20">
-        <v>12.95288214411731</v>
+        <v>8.059632597436009</v>
       </c>
       <c r="F20">
-        <v>37.94699767655111</v>
+        <v>25.92443177959836</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.18070357166488</v>
+        <v>5.796284418534114</v>
       </c>
       <c r="K20">
-        <v>12.13882403626492</v>
+        <v>13.0844388184534</v>
       </c>
       <c r="L20">
-        <v>10.80777671814026</v>
+        <v>7.097741488358873</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.01248099230399</v>
+        <v>13.06465646810149</v>
       </c>
       <c r="O20">
-        <v>29.23884855970674</v>
+        <v>18.88356501299348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46200227953015</v>
+        <v>18.07556125900152</v>
       </c>
       <c r="C21">
-        <v>8.100596608312708</v>
+        <v>6.910046614376894</v>
       </c>
       <c r="D21">
-        <v>8.034285918068758</v>
+        <v>6.149847228588478</v>
       </c>
       <c r="E21">
-        <v>12.94126402685412</v>
+        <v>8.155605274069615</v>
       </c>
       <c r="F21">
-        <v>37.89732748616566</v>
+        <v>26.30212034194715</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.15943163628035</v>
+        <v>5.749917723383663</v>
       </c>
       <c r="K21">
-        <v>12.32233307316294</v>
+        <v>13.86259841742526</v>
       </c>
       <c r="L21">
-        <v>10.81856301034089</v>
+        <v>7.277788069060516</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.94149561115323</v>
+        <v>12.80219373121837</v>
       </c>
       <c r="O21">
-        <v>29.16971113562371</v>
+        <v>18.97986968414121</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.62894525478698</v>
+        <v>18.68466914350962</v>
       </c>
       <c r="C22">
-        <v>8.119088868944207</v>
+        <v>6.974019711516761</v>
       </c>
       <c r="D22">
-        <v>8.054379817317361</v>
+        <v>6.293781768213895</v>
       </c>
       <c r="E22">
-        <v>12.93503761807566</v>
+        <v>8.2210333245218</v>
       </c>
       <c r="F22">
-        <v>37.87113101478872</v>
+        <v>26.56598710183631</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.14617530531541</v>
+        <v>5.720893573148186</v>
       </c>
       <c r="K22">
-        <v>12.44227556295368</v>
+        <v>14.35037315597218</v>
       </c>
       <c r="L22">
-        <v>10.82670793672505</v>
+        <v>7.395570245593941</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.89659927037045</v>
+        <v>12.63233789436835</v>
       </c>
       <c r="O22">
-        <v>29.12890761412937</v>
+        <v>19.05707388896928</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.53985246662524</v>
+        <v>18.36157864265712</v>
       </c>
       <c r="C23">
-        <v>8.109230781076548</v>
+        <v>6.939915499451485</v>
       </c>
       <c r="D23">
-        <v>8.043579128869697</v>
+        <v>6.217196172003183</v>
       </c>
       <c r="E23">
-        <v>12.93823596520036</v>
+        <v>8.185866332673356</v>
       </c>
       <c r="F23">
-        <v>37.88453927226544</v>
+        <v>26.42358246303836</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.15319146957421</v>
+        <v>5.736266354193568</v>
       </c>
       <c r="K23">
-        <v>12.37827048962743</v>
+        <v>14.09193056953091</v>
       </c>
       <c r="L23">
-        <v>10.82226118864851</v>
+        <v>7.332706536936801</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.92042472306072</v>
+        <v>12.72284942503567</v>
       </c>
       <c r="O23">
-        <v>29.15028407159727</v>
+        <v>19.01452931258427</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.20254047152743</v>
+        <v>17.09412536899724</v>
       </c>
       <c r="C24">
-        <v>8.071648013365932</v>
+        <v>6.809910553626189</v>
       </c>
       <c r="D24">
-        <v>8.004368560242856</v>
+        <v>5.922182746213505</v>
       </c>
       <c r="E24">
-        <v>12.9530951631726</v>
+        <v>8.05810975916385</v>
       </c>
       <c r="F24">
-        <v>37.94791528792364</v>
+        <v>25.91854231876768</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.18106218721662</v>
+        <v>5.797063659595733</v>
       </c>
       <c r="K24">
-        <v>12.13582736255845</v>
+        <v>13.0713667259192</v>
       </c>
       <c r="L24">
-        <v>10.80761904362062</v>
+        <v>7.094802681920341</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.01366656424021</v>
+        <v>13.06897677676338</v>
       </c>
       <c r="O24">
-        <v>29.24005249743362</v>
+        <v>18.88222410513296</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84077124276541</v>
+        <v>15.63504709937773</v>
       </c>
       <c r="C25">
-        <v>8.030629455865929</v>
+        <v>6.668064389981604</v>
       </c>
       <c r="D25">
-        <v>7.965826951853071</v>
+        <v>5.594821974793983</v>
       </c>
       <c r="E25">
-        <v>12.97501467847139</v>
+        <v>7.931963852872285</v>
       </c>
       <c r="F25">
-        <v>38.04317100009714</v>
+        <v>25.44507193884769</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.21391255347445</v>
+        <v>5.86805264930092</v>
       </c>
       <c r="K25">
-        <v>11.87550603525665</v>
+        <v>11.88020529234495</v>
       </c>
       <c r="L25">
-        <v>10.79658461531679</v>
+        <v>6.839633987375346</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.12070782624115</v>
+        <v>13.45048591526498</v>
       </c>
       <c r="O25">
-        <v>29.35567025687637</v>
+        <v>18.79726729618854</v>
       </c>
     </row>
   </sheetData>
